--- a/data/rock center percent submetered.xlsx
+++ b/data/rock center percent submetered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msheridan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulr\Documents\R\RockCenterEnergyAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F522C0-4288-44AC-90E8-72B1302DAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0740C6-68AE-4412-9ED2-4C8EA5E9E57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35445" yWindow="4530" windowWidth="26475" windowHeight="16215" xr2:uid="{ED804BB8-668A-49BB-B1F3-C8C3C34355D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{ED804BB8-668A-49BB-B1F3-C8C3C34355D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Submetered</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
@@ -481,18 +484,20 @@
   <dimension ref="B2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.9296875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
@@ -501,7 +506,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,7 +521,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,7 +536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +551,7 @@
         <v>0.69837389866464039</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,7 +566,7 @@
         <v>0.45052522758060148</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,7 +581,7 @@
         <v>0.49027680081428116</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,7 +596,7 @@
         <v>0.33734729723416185</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -606,7 +611,7 @@
         <v>0.27997908347837952</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,7 +626,7 @@
         <v>0.4401960326440213</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +641,7 @@
         <v>0.51136073735394438</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -651,7 +656,7 @@
         <v>0.36338713241201992</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,7 +671,7 @@
         <v>0.2550038192191218</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -683,20 +688,22 @@
         <v>0.45747882458361849</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -705,7 +712,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -720,7 +727,7 @@
         <v>0.21353128582722655</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +757,7 @@
         <v>0.21141677933148445</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,7 +772,7 @@
         <v>6.6698870187019921E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,7 +802,7 @@
         <v>5.4100898738526755E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -840,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
